--- a/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/INDICATEURS_RISQUES_PRI_PROJET-IEC61499_V1_1.xlsx
+++ b/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/INDICATEURS_RISQUES_PRI_PROJET-IEC61499_V1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/Indicateurs Qualités/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06CE070-9939-A94A-A0B2-1A4F459CC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE16780-CD83-1349-929A-2FD139027AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risque" sheetId="1" r:id="rId1"/>

--- a/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/INDICATEURS_RISQUES_PRI_PROJET-IEC61499_V1_1.xlsx
+++ b/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/INDICATEURS_RISQUES_PRI_PROJET-IEC61499_V1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtoursfr.sharepoint.com/sites/Projet-UniversalAutomation-IEC61499/Documents partages/General/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE16780-CD83-1349-929A-2FD139027AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{D06CE070-9939-A94A-A0B2-1A4F459CC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D800FC1-785F-5845-8C49-CA308E4270AB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risque" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Risques</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Incompatibilité / bugs Factory IO – SoftPLC – EAE</t>
+  </si>
+  <si>
+    <t>Incompatibilité / bugs Factory IO – EAE</t>
   </si>
 </sst>
 </file>
@@ -816,19 +819,19 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,22 +1021,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,22 +1228,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,22 +1439,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,16 +1648,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -1856,10 +1859,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -1868,7 +1871,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -2019,7 +2022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Incompatibilité / bugs Factory IO – SoftPLC – EAE</c:v>
+                  <c:v>Incompatibilité / bugs Factory IO – EAE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2072,7 +2075,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -2303,6 +2306,7 @@
         <c:axId val="874142175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2588,10 +2592,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -2674,16 +2678,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -3007,19 +3011,19 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,22 +3308,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,22 +3608,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,22 +3908,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,16 +4208,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -4504,10 +4508,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -4516,7 +4520,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -4754,7 +4758,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Incompatibilité / bugs Factory IO – SoftPLC – EAE</c:v>
+                  <c:v>Incompatibilité / bugs Factory IO – EAE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4807,7 +4811,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -10062,15 +10066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1765675</xdr:colOff>
+      <xdr:colOff>1795557</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>171824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1231388</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32358</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>152774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10645,19 +10649,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="16" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -10747,7 +10759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -10765,14 +10777,14 @@
         <v>16</v>
       </c>
       <c r="F4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7">
         <f>F4*G4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>9</v>
@@ -10804,24 +10816,24 @@
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
         <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H9" si="1">F5*G5</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="10" t="s">
@@ -10854,21 +10866,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="10" t="s">
@@ -10908,14 +10920,14 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="10" t="s">
@@ -11058,28 +11070,28 @@
         <v>31</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:C46" si="2">C29*C30</f>
+        <f t="shared" ref="C28:H46" si="2">C29*C30</f>
         <v>12</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ref="D28" si="3">D29*D30</f>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28" si="4">E29*E30</f>
-        <v>2</v>
-      </c>
       <c r="F28" s="5">
-        <f t="shared" ref="F28" si="5">F29*F30</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:H28" si="6">G29*G30</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11113,19 +11125,19 @@
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -11137,27 +11149,27 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" ref="D31" si="7">D32*D33</f>
-        <v>16</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" ref="E31" si="8">E32*E33</f>
-        <v>16</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" ref="F31" si="9">F32*F33</f>
-        <v>12</v>
-      </c>
       <c r="G31" s="7">
-        <f t="shared" ref="G31" si="10">G32*G33</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" ref="H31" si="11">H32*H33</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11165,22 +11177,22 @@
         <v>9</v>
       </c>
       <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
         <v>4</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11200,10 +11212,10 @@
         <v>4</v>
       </c>
       <c r="G33" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -11215,27 +11227,27 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34" si="12">D35*D36</f>
-        <v>8</v>
+        <f t="shared" ref="D34" si="3">D35*D36</f>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34" si="13">E35*E36</f>
-        <v>6</v>
+        <f t="shared" ref="E34" si="4">E35*E36</f>
+        <v>12</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34" si="14">F35*F36</f>
-        <v>6</v>
+        <f t="shared" ref="F34" si="5">F35*F36</f>
+        <v>9</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34" si="15">G35*G36</f>
-        <v>6</v>
+        <f t="shared" ref="G34" si="6">G35*G36</f>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34" si="16">H35*H36</f>
-        <v>3</v>
+        <f t="shared" ref="H34" si="7">H35*H36</f>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11246,19 +11258,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="7">
         <v>2</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11266,22 +11278,22 @@
         <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -11293,27 +11305,27 @@
       </c>
       <c r="C37" s="7">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" ref="D37" si="8">D38*D39</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" ref="E37" si="9">E38*E39</f>
+        <v>9</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" ref="F37" si="10">F38*F39</f>
         <v>12</v>
       </c>
-      <c r="D37" s="7">
-        <f t="shared" ref="D37" si="17">D38*D39</f>
-        <v>4</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" ref="E37" si="18">E38*E39</f>
-        <v>4</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" ref="F37" si="19">F38*F39</f>
-        <v>4</v>
-      </c>
       <c r="G37" s="7">
-        <f t="shared" ref="G37" si="20">G38*G39</f>
-        <v>4</v>
+        <f t="shared" ref="G37" si="11">G38*G39</f>
+        <v>10</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" ref="H37" si="21">H38*H39</f>
-        <v>4</v>
+        <f t="shared" ref="H37" si="12">H38*H39</f>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11321,22 +11333,22 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11344,22 +11356,22 @@
         <v>21</v>
       </c>
       <c r="C39" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
       </c>
       <c r="E39" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H39" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -11371,26 +11383,26 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ref="D40" si="13">D41*D42</f>
         <v>12</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" ref="D40" si="22">D41*D42</f>
+      <c r="E40" s="1">
+        <f t="shared" ref="E40" si="14">E41*E42</f>
         <v>12</v>
       </c>
-      <c r="E40" s="1">
-        <f t="shared" ref="E40" si="23">E41*E42</f>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40" si="15">F41*F42</f>
         <v>9</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" ref="F40" si="24">F41*F42</f>
-        <v>12</v>
-      </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40" si="25">G41*G42</f>
+        <f t="shared" ref="G40" si="16">G41*G42</f>
         <v>9</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ref="H40" si="26">H41*H42</f>
+        <f t="shared" ref="H40" si="17">H41*H42</f>
         <v>3</v>
       </c>
     </row>
@@ -11399,16 +11411,16 @@
         <v>9</v>
       </c>
       <c r="C41" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
         <v>4</v>
       </c>
       <c r="E41" s="7">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7">
         <v>3</v>
-      </c>
-      <c r="F41" s="7">
-        <v>4</v>
       </c>
       <c r="G41" s="7">
         <v>3</v>
@@ -11449,26 +11461,26 @@
       </c>
       <c r="C43" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" ref="D43" si="27">D44*D45</f>
-        <v>9</v>
+        <f t="shared" ref="D43" si="18">D44*D45</f>
+        <v>6</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" ref="E43" si="28">E44*E45</f>
+        <f t="shared" ref="E43" si="19">E44*E45</f>
         <v>6</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" ref="F43" si="29">F44*F45</f>
+        <f t="shared" ref="F43" si="20">F44*F45</f>
         <v>6</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" ref="G43" si="30">G44*G45</f>
-        <v>6</v>
+        <f t="shared" ref="G43" si="21">G44*G45</f>
+        <v>3</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" ref="H43" si="31">H44*H45</f>
+        <f t="shared" ref="H43" si="22">H44*H45</f>
         <v>3</v>
       </c>
     </row>
@@ -11477,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -11489,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -11523,7 +11535,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="2"/>
@@ -11531,22 +11543,22 @@
       </c>
       <c r="D46" s="1">
         <f>D47*D48</f>
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" ref="E46" si="23">E47*E48</f>
         <v>5</v>
       </c>
-      <c r="E46" s="1">
-        <f t="shared" ref="E46" si="32">E47*E48</f>
+      <c r="F46" s="1">
+        <f t="shared" ref="F46" si="24">F47*F48</f>
         <v>5</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" ref="F46" si="33">F47*F48</f>
+      <c r="G46" s="1">
+        <f t="shared" ref="G46" si="25">G47*G48</f>
         <v>5</v>
       </c>
-      <c r="G46" s="1">
-        <f t="shared" ref="G46" si="34">G47*G48</f>
-        <v>5</v>
-      </c>
       <c r="H46" s="1">
-        <f t="shared" ref="H46" si="35">H47*H48</f>
+        <f t="shared" ref="H46" si="26">H47*H48</f>
         <v>5</v>
       </c>
     </row>
@@ -11558,7 +11570,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
@@ -11613,6 +11625,201 @@
 </worksheet>
 </file>
 
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E515E1E2CF8004C99C95607B9652EE2" ma:contentTypeVersion="3" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="084f4a7ec9dcaa2bb00e9bf849c8b8c0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d516c02-b9f1-42d8-97df-19f84f27208b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7054e435ea20f94c9eab621631aa2029" ns2:_="">
+    <xsd:import namespace="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8d516c02-b9f1-42d8-97df-19f84f27208b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32902E9-2149-47C5-96E6-C6BF608DF724}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C72472-7111-4894-AD3B-8AB696448BD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA082F40-A647-4DA0-B86B-FD8F306415FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{16150599-ebb0-4fcf-94a5-6010823c7bd5}" enabled="0" method="" siteId="{16150599-ebb0-4fcf-94a5-6010823c7bd5}" removed="1"/>
